--- a/Data dictionary.xlsx
+++ b/Data dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paige\Documents\MSBA\Adv. Pred Model\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paige\Documents\MSBA\Ghosh\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Visual" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data dictionary'!$A$1:$D$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data dictionary'!$A$1:$D$31</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="106">
   <si>
     <t>order_dow</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>Attribute</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>Used for grouping predictions in test set</t>
   </si>
 </sst>
 </file>
@@ -915,8 +921,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72E8C0C0-16A4-4497-A691-97434A8B0743}" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0">
-  <autoFilter ref="A1:D37" xr:uid="{70A37634-C9B4-440D-8E38-73A6116A425F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72E8C0C0-16A4-4497-A691-97434A8B0743}" name="Table1" displayName="Table1" ref="A1:D38" totalsRowShown="0">
+  <autoFilter ref="A1:D38" xr:uid="{70A37634-C9B4-440D-8E38-73A6116A425F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8449380F-CC3A-4A67-9674-4005ACF2DF0E}" name="Attribute"/>
     <tableColumn id="2" xr3:uid="{19BB8F62-2532-410D-B75B-DCA3D67C3605}" name="Level"/>
@@ -1224,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6613DF-2168-481F-887A-3EB50D3FCD8E}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1288,29 +1294,26 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
         <v>67</v>
@@ -1318,13 +1321,13 @@
     </row>
     <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>67</v>
@@ -1332,55 +1335,55 @@
     </row>
     <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>68</v>
@@ -1388,41 +1391,41 @@
     </row>
     <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>67</v>
@@ -1430,83 +1433,83 @@
     </row>
     <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>54</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
         <v>67</v>
@@ -1514,13 +1517,13 @@
     </row>
     <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>67</v>
@@ -1528,13 +1531,13 @@
     </row>
     <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
         <v>67</v>
@@ -1542,41 +1545,41 @@
     </row>
     <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>67</v>
@@ -1584,13 +1587,13 @@
     </row>
     <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
         <v>67</v>
@@ -1598,13 +1601,13 @@
     </row>
     <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
         <v>67</v>
@@ -1612,13 +1615,13 @@
     </row>
     <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
         <v>67</v>
@@ -1626,13 +1629,13 @@
     </row>
     <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
         <v>67</v>
@@ -1640,41 +1643,41 @@
     </row>
     <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
         <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
         <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
         <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
         <v>67</v>
@@ -1682,13 +1685,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
         <v>67</v>
@@ -1696,13 +1699,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
@@ -1710,13 +1713,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
         <v>65</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
         <v>67</v>
@@ -1724,13 +1727,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
         <v>65</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
         <v>67</v>
@@ -1738,15 +1741,29 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
         <v>65</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Data dictionary.xlsx
+++ b/Data dictionary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paige\Documents\MSBA\Ghosh\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paige\Documents\GitHub\Instacart-market-basket-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Visual" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data dictionary'!$A$1:$D$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data dictionary'!$A$1:$D$27</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="106">
-  <si>
-    <t>order_dow</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="99">
   <si>
     <t>days_since_prod</t>
   </si>
@@ -68,15 +65,6 @@
     <t>target</t>
   </si>
   <si>
-    <t>aisle_id</t>
-  </si>
-  <si>
-    <t>department_id</t>
-  </si>
-  <si>
-    <t>order_hour_of_day</t>
-  </si>
-  <si>
     <t>reordered_usr_avg</t>
   </si>
   <si>
@@ -107,15 +95,6 @@
     <t>The average of 'reordered' across all of the user's entries in the dataset</t>
   </si>
   <si>
-    <t>The day of week the order was placed</t>
-  </si>
-  <si>
-    <t>The department the product is in</t>
-  </si>
-  <si>
-    <t>The aisle the product is in</t>
-  </si>
-  <si>
     <t>avg_order_size</t>
   </si>
   <si>
@@ -125,9 +104,6 @@
     <t>That which we are predicting (whether the product appeared in the user's most recent order or not)</t>
   </si>
   <si>
-    <t>The hour of day the order was placed</t>
-  </si>
-  <si>
     <t>avg_days_between_orders</t>
   </si>
   <si>
@@ -173,12 +149,6 @@
     <t>Average of usr_avg_dept_disp, across all users</t>
   </si>
   <si>
-    <t>organic</t>
-  </si>
-  <si>
-    <t>Whether the product's name indicates it is organic (1 if true)</t>
-  </si>
-  <si>
     <t>The percentage of the user's orders which contain the product</t>
   </si>
   <si>
@@ -212,9 +182,6 @@
     <t>5 - Department</t>
   </si>
   <si>
-    <t>6 - Order</t>
-  </si>
-  <si>
     <t>5a - User/dept</t>
   </si>
   <si>
@@ -342,6 +309,18 @@
   </si>
   <si>
     <t>Used for grouping predictions in test set</t>
+  </si>
+  <si>
+    <t>The number of products in the user's previous order</t>
+  </si>
+  <si>
+    <t>prev_ord_size</t>
+  </si>
+  <si>
+    <t>reorder_custom</t>
+  </si>
+  <si>
+    <t>Whether the product had been in the user's most recent order</t>
   </si>
 </sst>
 </file>
@@ -921,8 +900,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72E8C0C0-16A4-4497-A691-97434A8B0743}" name="Table1" displayName="Table1" ref="A1:D38" totalsRowShown="0">
-  <autoFilter ref="A1:D38" xr:uid="{70A37634-C9B4-440D-8E38-73A6116A425F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72E8C0C0-16A4-4497-A691-97434A8B0743}" name="Table1" displayName="Table1" ref="A1:D35" totalsRowShown="0">
+  <autoFilter ref="A1:D35" xr:uid="{0A49F08A-1F65-4171-A7EF-F92EBDBC76CE}"/>
+  <sortState ref="A2:D35">
+    <sortCondition ref="B1:B35"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8449380F-CC3A-4A67-9674-4005ACF2DF0E}" name="Attribute"/>
     <tableColumn id="2" xr3:uid="{19BB8F62-2532-410D-B75B-DCA3D67C3605}" name="Level"/>
@@ -1230,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6613DF-2168-481F-887A-3EB50D3FCD8E}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1246,525 +1228,483 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1788,30 +1728,30 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1823,7 +1763,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1835,7 +1775,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1847,7 +1787,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1859,7 +1799,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1871,7 +1811,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1883,7 +1823,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1895,7 +1835,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1907,7 +1847,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1919,7 +1859,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1931,7 +1871,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1943,7 +1883,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1955,7 +1895,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1967,7 +1907,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1979,7 +1919,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1991,7 +1931,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
